--- a/Scraping Data/facebook/data indihome.xlsx
+++ b/Scraping Data/facebook/data indihome.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AV1"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +674,936 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>✨DATA HASIL SELEKSI BERSAMA MASUK PERGURUAN TINGGI NEGERI (SBMPTN) 2022✨
+Halo, Calon Mahasiswa Indonesia!
+Setelah data mengenai KIP Kuliah, kita juga dapat menyimak data 10 peserta dengan nilai SOSHUM tertinggi pada SBMPTN 2022.
+Penasaran nilai tertinggi di bidang SOSHUM UTBK 2022? Yuk, kita cari tau bersama!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>✨DATA HASIL SELEKSI BERSAMA MASUK PERGURUAN TINGGI NEGERI (SBMPTN) 2022✨
+Halo, Calon Mahasiswa Indonesia!
+Setelah data mengenai KIP Kuliah, kita juga dapat menyimak data 10 peserta dengan nilai SOSHUM tertinggi pada SBMPTN 2022.
+Penasaran nilai tertinggi di bidang SOSHUM UTBK 2022? Yuk, kita cari tau bersama!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" s="2" t="n">
+        <v>44742.72744212963</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1656584851</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/291048602_591683805710921_8422255443299261386_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=U0hEIWKH7QEAX8aqbCx&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT_bmO01qLhWQsFPTwBL-e0zmrW8oPPSZokk98hH4a_uMA&amp;oe=62C8E899</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/291048602_591683805710921_8422255443299261386_n.jpg?stp=cp0_dst-jpg_e15_p320x320_q65&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=U0hEIWKH7QEAX8aqbCx&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT-dSsX4s4JEbYtdIW5H-boG09GTgix10iqrTecalZjngw&amp;oe=62C8E899</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/291048602_591683805710921_8422255443299261386_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=U0hEIWKH7QEAX8aqbCx&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT_bmO01qLhWQsFPTwBL-e0zmrW8oPPSZokk98hH4a_uMA&amp;oe=62C8E899']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>["May be an image of text that says 'LTMPT LembagaTes nTing ingg 10 PESERTA DENGAN NILAI TERTINGGI (SOSHUM) G20 NO NAMA PTN 1 Universitas Gadjah Mada NAMA PRODI Universitas Indonesia 3 NILAI Universitas Gadjah Mada Akuntansi Ilmu Ekonomi 5 Universitas Gadjah Mada 786,17 Universitas Indonesia Akuntansi 784,05 Sastra Prancis Universitas Gadjah Mada 783,78 Akuntansi Universitas Gadjah Mada 781,48 Manajemen Dan Kebijakan Publik Universitas Airlangga 9 780,70 Ilmu Hubungan Internasional Universitas Indonesia 10 780,39 Universitas Indonesia Akuntansi 780,35 Ilmu Hukum 778,36 Ilmu Psikologi 774,74 774,45 CANDISINI mandırı KBNI Bank BTN åBRI ltmpt.ac.id LTMPTFFICIAL PROTOKOL @Itmptofficial 0804 PENCEGAHANCOVID-19 halo.ltmpt.ac.id'"]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/291048602_591683805710921_8422255443299261386_n.jpg?stp=cp0_dst-jpg_e15_p320x320_q65&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=U0hEIWKH7QEAX8aqbCx&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT-dSsX4s4JEbYtdIW5H-boG09GTgix10iqrTecalZjngw&amp;oe=62C8E899']</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>["May be an image of text that says 'LTMPT LembagaTes nTing ingg 10 PESERTA DENGAN NILAI TERTINGGI (SOSHUM) G20 NO NAMA PTN 1 Universitas Gadjah Mada NAMA PRODI Universitas Indonesia 3 NILAI Universitas Gadjah Mada Akuntansi Ilmu Ekonomi 5 Universitas Gadjah Mada 786,17 Universitas Indonesia Akuntansi 784,05 Sastra Prancis Universitas Gadjah Mada 783,78 Akuntansi Universitas Gadjah Mada 781,48 Manajemen Dan Kebijakan Publik Universitas Airlangga 9 780,70 Ilmu Hubungan Internasional Universitas Indonesia 10 780,39 Universitas Indonesia Akuntansi 780,35 Ilmu Hukum 778,36 Ilmu Psikologi 774,74 774,45 CANDISINI mandırı KBNI Bank BTN åBRI ltmpt.ac.id LTMPTFFICIAL PROTOKOL @Itmptofficial 0804 PENCEGAHANCOVID-19 halo.ltmpt.ac.id'"]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>41</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/posts/591683835710918</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[{'link': '/story.php?story_fbid=pfbid02NZksoTDUn579133cEEsvGn751GfHXZ6P7oN6RRiiPwiL8XKp2pgZYwnLqvo99mupl&amp;id=109230333956273&amp;locale2=en_US', 'text': 'More'}, {'link': '/hashtag/infoltmpt2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#infoLTMPT2022'}, {'link': '/hashtag/snmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SNMPTN2022'}, {'link': '/hashtag/sbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SBMPTN2022'}, {'link': '/hashtag/utbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#UTBK2022'}, {'link': '/hashtag/inforesmisnmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSNMPTN2022'}, {'link': '/hashtag/inforesmisbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSBMPTN2022'}, {'link': '/hashtag/inforesmiutbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiUTBK2022'}]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Lembaga Tes Masuk Perguruan Tinggi</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/?locale2=en_US&amp;__tn__=C-R</t>
+        </is>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>591683809044254</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>['591683809044254']</t>
+        </is>
+      </c>
+      <c r="AV2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>✨DATA HASIL SELEKSI BERSAMA MASUK PERGURUAN TINGGI NEGERI (SBMPTN) 2022✨
+Halo, Calon Mahasiswa Indonesia!
+Setelah data mengenai KIP Kuliah, kita juga dapat menyimak data 10 peserta dengan nilai SAINTEK tertinggi pada SBMPTN 2022.
+Penasaran nilai tertinggi di bidang SAINTEK UTBK 2022? Yuk, kita cari tau bersama!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>✨DATA HASIL SELEKSI BERSAMA MASUK PERGURUAN TINGGI NEGERI (SBMPTN) 2022✨
+Halo, Calon Mahasiswa Indonesia!
+Setelah data mengenai KIP Kuliah, kita juga dapat menyimak data 10 peserta dengan nilai SAINTEK tertinggi pada SBMPTN 2022.
+Penasaran nilai tertinggi di bidang SAINTEK UTBK 2022? Yuk, kita cari tau bersama!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" s="2" t="n">
+        <v>44742.66780092593</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1656579698</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290960882_591646239048011_448171881088927364_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=z9VENi9TyMQAX8zTa3r&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT9cFKeOyhDZPkslE44yaCCBBdZIqyUcsdjBluMXWcqNjg&amp;oe=62C8DD28</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290960882_591646239048011_448171881088927364_n.jpg?stp=cp0_dst-jpg_e15_p320x320_q65&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=z9VENi9TyMQAX8zTa3r&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT-UxB5tsMHrDZMAOsFPNnl7AXkoydygzanehjXIXZTYNg&amp;oe=62C8DD28</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290960882_591646239048011_448171881088927364_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=z9VENi9TyMQAX8zTa3r&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT9cFKeOyhDZPkslE44yaCCBBdZIqyUcsdjBluMXWcqNjg&amp;oe=62C8DD28']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>["May be an image of text that says 'LTMPT LembagaTes Masu ingg 10 PESERTA DENGAN NILAI TERTINGGI (SAINTEK) G20 NO NAMA PTN Institut Teknologi Bandung NAMA PRODI 2 3 Universitas Diponegoro NILAI Sekolah Teknik Elektro Informatika (STEI) Komputasi Universitas Diponegoro 830,98 5 Kedokteran Universitas Gadjah Mada Kedokteran 6 Universitas Gadjah Mada 826,29 Kedokteran Universitas Gadjah Mada 824,02 Kedokteran 8 Universitas Jenderal Soedirman 823,24 Kedokteran Universitas Gadjah Mada 9 823,21 Pendidikan Dokter Universitas Gadjah Mada 10 820,46 Kedokteran Universitas Gadjah Mada 817,72 Kedokteran 817,03 Kedokteran 816,82 814,47 CANDISINI mandırı KBNI Bank BTN åBRI Itmpt.ac.id LTMPFICAL JAGA PROTOKOL @ltmptofficial 0804 PENCEGAHANCOVID-19 halo.ltmpt.ac.id'"]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290960882_591646239048011_448171881088927364_n.jpg?stp=cp0_dst-jpg_e15_p320x320_q65&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=z9VENi9TyMQAX8zTa3r&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT-UxB5tsMHrDZMAOsFPNnl7AXkoydygzanehjXIXZTYNg&amp;oe=62C8DD28']</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>["May be an image of text that says 'LTMPT LembagaTes Masu ingg 10 PESERTA DENGAN NILAI TERTINGGI (SAINTEK) G20 NO NAMA PTN Institut Teknologi Bandung NAMA PRODI 2 3 Universitas Diponegoro NILAI Sekolah Teknik Elektro Informatika (STEI) Komputasi Universitas Diponegoro 830,98 5 Kedokteran Universitas Gadjah Mada Kedokteran 6 Universitas Gadjah Mada 826,29 Kedokteran Universitas Gadjah Mada 824,02 Kedokteran 8 Universitas Jenderal Soedirman 823,24 Kedokteran Universitas Gadjah Mada 9 823,21 Pendidikan Dokter Universitas Gadjah Mada 10 820,46 Kedokteran Universitas Gadjah Mada 817,72 Kedokteran 817,03 Kedokteran 816,82 814,47 CANDISINI mandırı KBNI Bank BTN åBRI Itmpt.ac.id LTMPFICAL JAGA PROTOKOL @ltmptofficial 0804 PENCEGAHANCOVID-19 halo.ltmpt.ac.id'"]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>68</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/posts/591646275714674</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>[{'link': '/story.php?story_fbid=pfbid02BaxEfhMdTQrrmRsP95rTqnWwjzfJfmiGFDz1c3ZZSgrgU48wewHPrjAz5CVhRFyHl&amp;id=109230333956273&amp;locale2=en_US', 'text': 'More'}, {'link': '/hashtag/infoltmpt2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#infoLTMPT2022'}, {'link': '/hashtag/snmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SNMPTN2022'}, {'link': '/hashtag/sbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SBMPTN2022'}, {'link': '/hashtag/utbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#UTBK2022'}, {'link': '/hashtag/inforesmisnmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSNMPTN2022'}, {'link': '/hashtag/inforesmisbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSBMPTN2022'}, {'link': '/hashtag/inforesmiutbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiUTBK2022'}]</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Lembaga Tes Masuk Perguruan Tinggi</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/?locale2=en_US&amp;__tn__=C-R</t>
+        </is>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>[{'comment_id': '1417361005342990', 'comment_url': 'https://facebook.com/1417361005342990', 'commenter_id': '100000665740783', 'commenter_url': None, 'commenter_name': 'Widi Siswantoro', 'commenter_meta': None, 'comment_text': 'Info 1000 sekolah terbaik versi LtMPt donk admin untuk yang tahun 2022. Terimakasih', 'comment_time': datetime.datetime(2022, 7, 4, 5, 0), 'comment_image': None, 'comment_reactors': [], 'comment_reactions': None, 'comment_reaction_count': None, 'replies': []}]</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>591646245714677</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>['591646245714677']</t>
+        </is>
+      </c>
+      <c r="AV3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>✨DATA HASIL SELEKSI BERSAMA MASUK PERGURUAN TINGGI NEGERI (SBMPTN) 2022✨
+Halo, Calon Mahasiswa Indonesia!
+Setelah data umum, kita juga akan menyimak data 10 besar PTN yang menerima peserta KIP Kuliah paling banyak hingga 10 provinsi asal sekolah paling banyak di terima pada SBMPTN 2022.
+Penasaran apakah perguruan tinggi atau provinsi Calon Mahasiswa termasuk salah satunya? Yuk, kita cari tau bersama!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>✨DATA HASIL SELEKSI BERSAMA MASUK PERGURUAN TINGGI NEGERI (SBMPTN) 2022✨
+Halo, Calon Mahasiswa Indonesia!
+Setelah data umum, kita juga akan menyimak data 10 besar PTN yang menerima peserta KIP Kuliah paling banyak hingga 10 provinsi asal sekolah paling banyak di terima pada SBMPTN 2022.
+Penasaran apakah perguruan tinggi atau provinsi Calon Mahasiswa termasuk salah satunya? Yuk, kita cari tau bersama!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" s="2" t="n">
+        <v>44738.81693287037</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1656246983</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-4.fna.fbcdn.net/v/t39.30808-6/290128186_588915342654434_3702607923962953023_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=JPUSDNJKgOUAX-C_8Nc&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-4.fna&amp;oh=00_AT_puPb0AIuFS0ZnPllbn4dI0ErKgOYyhicpLEtOcYFVMg&amp;oe=62C8702E</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-4.fna.fbcdn.net/v/t39.30808-6/290128186_588915342654434_3702607923962953023_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=JPUSDNJKgOUAX-C_8Nc&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-4.fna&amp;oh=00_AT9IKuOPIfvLYb-o56w1_5g1PMQldcitDEY2betAuVI79g&amp;oe=62C8702E</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-4.fna.fbcdn.net/v/t39.30808-6/290128186_588915342654434_3702607923962953023_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=JPUSDNJKgOUAX-C_8Nc&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-4.fna&amp;oh=00_AT_puPb0AIuFS0ZnPllbn4dI0ErKgOYyhicpLEtOcYFVMg&amp;oe=62C8702E', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290538496_588915349321100_4382466013831391413_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=l67rBSp8VFUAX8SE1tP&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT8dlL_EdEt6GswqkTEP56P8l8oszu3ri2Tt0dxutQwyYg&amp;oe=62C93A57', 'https://z-m-scontent.fsub2-4.fna.fbcdn.net/v/t39.30808-6/290073711_588915339321101_4256125514542986989_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=TyiFscovmrUAX_fRaqg&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-4.fna&amp;oh=00_AT8ppreou7l4UUHtaaCKGxsvLY1uAkp6JJRv8_-nTeAJzA&amp;oe=62C9560F', 'https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/289999654_588915332654435_4957799356137126178_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=GFbkEpdXkZQAX_2jxUe&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT8i_UWu5PzgUywFYdqIDoqRhYF81X2wiLSQOefW6Yekew&amp;oe=62C83F7D', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290012717_588915352654433_429140382838419367_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=LTZNJKeD4toAX8U5xSx&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT9Vmdgy-pjzwijGg4aXRNjc1ROWKJ_z2c0TqK5ERi1eeQ&amp;oe=62C7D889', 'https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/290150795_588915335987768_5197299772677493304_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=2cvRidiDBv4AX_kFiAG&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT_lLQPqvtTS8adlOVhZJRWv8XcH43GBvVtT22q2hqp72A&amp;oe=62C97C74', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290960882_591646239048011_448171881088927364_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=z9VENi9TyMQAX8zTa3r&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT9cFKeOyhDZPkslE44yaCCBBdZIqyUcsdjBluMXWcqNjg&amp;oe=62C8DD28', 'https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/291048602_591683805710921_8422255443299261386_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=U0hEIWKH7QEAX8aqbCx&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT_bmO01qLhWQsFPTwBL-e0zmrW8oPPSZokk98hH4a_uMA&amp;oe=62C8E899', 'https://z-m-scontent.fsub2-4.fna.fbcdn.net/v/t1.6435-9/86289860_126240728921900_7821136562707496960_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=lbMOGCIZO08AX8wi1Gb&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-4.fna&amp;oh=00_AT-pOnqqGL7uSSDaPXZ4jS20EJc2i66r-kqm4p5OaCVsCw&amp;oe=62E892F8']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>["May be an image of 1 person and text that says 'LTMPT LembagaTes Tinggi SNMPTN 10 PTN PENERIMA PESERTA KIP KULIAH TERBANYAK G20 Universitas Nusa Cendana 2.195 Universitas Negeri Makassar 2.124 Universitas Negeri Surabaya 2.061 Universitas Lampung 2.048 6 Universitas Trunojoyo Madura 7 1.972 Universitas Negeri Padang 1.925 Universitas Haluoleo Kartu Indonesia 1.811 Universitas Negeri Gorontalo 1.810 Universitas Tadulako 10 GPN 1.795 Universitas Negeri Medan 1.773 mandırı KBNI Bank CANDISINI BTN WBRI ltmpt.ac.id TMPCL JAGA PROTOKOL PENCEGAHANCOVID- @Itmptofficial 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT nggi SNMPTN 10 PROVINSI PESERTA KIP KULIAH DITERIMA TERBANYAK G20 1 artu Indonesia Pintar Kuliah Jawa Timur 2 Sumatera Utara 9.679 3 GPN Jawa Tengah 6.296 4 Kartu Indonesia Pint Jawa Barat 5.661 5 Sumatera Barat 4.271 6 4.014 Nusa Tenggara Timur 7 Pintar Kuliah 3.809 Sulawesi Selatan Kartuindonesia 8 Aceh 3.698 9 3.105 Sulawesi Tenggara 10 intar Lampung 2.188 2.056 mandırı KGBNI Bank BTN åBRI ltmpt.ac.id LTMPTFFICIAL JAGA PROTOKOL PENCEGAHANCOVID-19 @ltmptofficial 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT LembagaTes inggi 10 PESERTA DENGAN NILAI TERTINGGI (SAINTEK) G20 NO NAMA PTN 1 Institut Teknologi Bandung NAMA PRODI 2 3 Universitas Diponegoro NILAI Sekolah Teknik Elektro Informatika (STEI) Komputasi Universitas Diponegoro 830,98 5 Kedokteran Universitas Gadjah Mada Kedokteran Universitas Gadjah Mada 6 826,29 Kedokteran 7 Universitas Gadjah Mada 824,02 Kedokteran 8 823,24 Universitas Jenderal Soedirman Kedokteran Universitas Gadjah Mada 9 823,21 Pendidikan Dokter Universitas Gadjah Mada 10 820,46 Kedokteran Universitas Gadjah Mada 817,72 Kedokteran 817,03 Kedokteran 816,82 814,47 mandırı KBNI Bank BTN RBRI ltmpt.ac.id LTMPFFICIAL @Itmptofficial PROTOKOL PENCEGAHAN.COVID COVID-19 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'ILTMPT LembagaTes inggi 10 PESERTA DENGAN NILAI TERTINGGI (SOSHUM) G2O INDONESIA NO NAMA PTN 1 Universitas Gadjah Mada NAMA PRODI Universitas Indonesia 3 NILAI Universitas Gadjah Mada Akuntansi Ilmu Ekonomi 5 Universitas Gadjah Mada 786,17 Universitas Indonesia 6 Akuntansi 784,05 Sastra Prancis 7 Universitas Gadjah Mada 783,78 Akuntansi Universitas Gadjah Mada 8 781,48 9 Manajemen Dan Kebijakan Publik Universitas Airlangga 780,70 Ilmu Hubungan Internasional Universitas Indonesia 10 780,39 Universitas Indonesia Akuntansi 780,35 Ilmu Hukum 778,36 Ilmu Psikologi 774,74 774,45 mandırı KBNI Bank BTN WBRI Itmpt.ac.id LTMPTFFICIAL @Itmptofficial PROTOKOL PENCEGAHANCOVID-19 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT LembagaTes Tes nggi G2O INDONESIA 10 PROVINSI ASAL SEKOLAH PESERTA DENGAN NILAI RERATA TERTINGGI YANG DITERIMA NO SAINTEK 1 PROVINSI DI Yogyakarta 2 NILAI RERATA DKI Jakarta 3 612,68 Jawa Tengah 4 Jawa Barat 5 605,52 594,27 Banten 6 584,79 Jawa Timur 7 Bali 575,89 8 569,46 Sumatera Barat 9 565,20 Kepulauan Riau 10 Riau 549,41 549,03 542,10 mandırı KGBNI Bank BTN WBRI ltmpt.ac.id LTMPTFFCAL JAGA PROTOKOL @Itmptofficial 0804 450 PENCEGAHANCOVID-19 halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT LembagaTes nggi G20 10 PTN DENGAN NILAI RERATA TERTINGGI YANG DITERIMA (SOSHUM) NO NAMA PTN Universitas Indonesia NILAI RERATA Institut Teknologi Bandung 690,02 Universitas Gadjah Mada 682,30 5 Universitas Diponegoro 680,49 6 Universitas Padjadjaran 651,32 Institut Teknologi Sepuluh Nopember 649,07 8 Universitas Airlangga 648,76 Universitas Brawijaya 645,83 UPN Veteran Jakarta 10 635,26 Universitas Jenderal Soedirman 623,26 Indonesia mandırı KGBNI Bank 621,98 BTN RBRI ltmpt.ac.id LTMPTFFICIAL @Itmptofficial PROTOKOL PENCEGAHANCOVID-19 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT LembagaTes Masu ingg 10 PESERTA DENGAN NILAI TERTINGGI (SAINTEK) G20 NO NAMA PTN Institut Teknologi Bandung NAMA PRODI 2 3 Universitas Diponegoro NILAI Sekolah Teknik Elektro Informatika (STEI) Komputasi Universitas Diponegoro 830,98 5 Kedokteran Universitas Gadjah Mada Kedokteran 6 Universitas Gadjah Mada 826,29 Kedokteran Universitas Gadjah Mada 824,02 Kedokteran 8 Universitas Jenderal Soedirman 823,24 Kedokteran Universitas Gadjah Mada 9 823,21 Pendidikan Dokter Universitas Gadjah Mada 10 820,46 Kedokteran Universitas Gadjah Mada 817,72 Kedokteran 817,03 Kedokteran 816,82 814,47 CANDISINI mandırı KBNI Bank BTN åBRI Itmpt.ac.id LTMPFICAL JAGA PROTOKOL @ltmptofficial 0804 PENCEGAHANCOVID-19 halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT LembagaTes nTing ingg 10 PESERTA DENGAN NILAI TERTINGGI (SOSHUM) G20 NO NAMA PTN 1 Universitas Gadjah Mada NAMA PRODI Universitas Indonesia 3 NILAI Universitas Gadjah Mada Akuntansi Ilmu Ekonomi 5 Universitas Gadjah Mada 786,17 Universitas Indonesia Akuntansi 784,05 Sastra Prancis Universitas Gadjah Mada 783,78 Akuntansi Universitas Gadjah Mada 781,48 Manajemen Dan Kebijakan Publik Universitas Airlangga 9 780,70 Ilmu Hubungan Internasional Universitas Indonesia 10 780,39 Universitas Indonesia Akuntansi 780,35 Ilmu Hukum 778,36 Ilmu Psikologi 774,74 774,45 CANDISINI mandırı KBNI Bank BTN åBRI ltmpt.ac.id LTMPTFFICIAL PROTOKOL @Itmptofficial 0804 PENCEGAHANCOVID-19 halo.ltmpt.ac.id'", 'No photo description available.']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-4.fna.fbcdn.net/v/t39.30808-6/290128186_588915342654434_3702607923962953023_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=JPUSDNJKgOUAX-C_8Nc&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-4.fna&amp;oh=00_AT9IKuOPIfvLYb-o56w1_5g1PMQldcitDEY2betAuVI79g&amp;oe=62C8702E', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290538496_588915349321100_4382466013831391413_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=l67rBSp8VFUAX8SE1tP&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT_xRjCi9uTSres7JwUUhCSOla0vUwD8R7IaQlnMYPUt9w&amp;oe=62C93A57', 'https://z-m-scontent.fsub2-4.fna.fbcdn.net/v/t39.30808-6/290073711_588915339321101_4256125514542986989_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=TyiFscovmrUAX_fRaqg&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-4.fna&amp;oh=00_AT8mH7pYRqu9UeoA_He8V_I3CqvpyhD5GHWRcuay92b4xw&amp;oe=62C9560F', 'https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/289999654_588915332654435_4957799356137126178_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=GFbkEpdXkZQAX_2jxUe&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT9FKI7pxZi0UD4dEvr18vUzGfZh1oDdwRkBljBGfntU0w&amp;oe=62C83F7D']</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>["May be an image of 1 person and text that says 'LTMPT LembagaTes Tinggi SNMPTN 10 PTN PENERIMA PESERTA KIP KULIAH TERBANYAK G20 Universitas Nusa Cendana 2.195 Universitas Negeri Makassar 2.124 Universitas Negeri Surabaya 2.061 Universitas Lampung 2.048 6 Universitas Trunojoyo Madura 7 1.972 Universitas Negeri Padang 1.925 Universitas Haluoleo Kartu Indonesia 1.811 Universitas Negeri Gorontalo 1.810 Universitas Tadulako 10 GPN 1.795 Universitas Negeri Medan 1.773 mandırı KBNI Bank CANDISINI BTN WBRI ltmpt.ac.id TMPCL JAGA PROTOKOL PENCEGAHANCOVID- @Itmptofficial 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT nggi SNMPTN 10 PROVINSI PESERTA KIP KULIAH DITERIMA TERBANYAK G20 1 artu Indonesia Pintar Kuliah Jawa Timur 2 Sumatera Utara 9.679 3 GPN Jawa Tengah 6.296 4 Kartu Indonesia Pint Jawa Barat 5.661 5 Sumatera Barat 4.271 6 4.014 Nusa Tenggara Timur 7 Pintar Kuliah 3.809 Sulawesi Selatan Kartuindonesia 8 Aceh 3.698 9 3.105 Sulawesi Tenggara 10 intar Lampung 2.188 2.056 mandırı KGBNI Bank BTN åBRI ltmpt.ac.id LTMPTFFICIAL JAGA PROTOKOL PENCEGAHANCOVID-19 @ltmptofficial 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT LembagaTes inggi 10 PESERTA DENGAN NILAI TERTINGGI (SAINTEK) G20 NO NAMA PTN 1 Institut Teknologi Bandung NAMA PRODI 2 3 Universitas Diponegoro NILAI Sekolah Teknik Elektro Informatika (STEI) Komputasi Universitas Diponegoro 830,98 5 Kedokteran Universitas Gadjah Mada Kedokteran Universitas Gadjah Mada 6 826,29 Kedokteran 7 Universitas Gadjah Mada 824,02 Kedokteran 8 823,24 Universitas Jenderal Soedirman Kedokteran Universitas Gadjah Mada 9 823,21 Pendidikan Dokter Universitas Gadjah Mada 10 820,46 Kedokteran Universitas Gadjah Mada 817,72 Kedokteran 817,03 Kedokteran 816,82 814,47 mandırı KBNI Bank BTN RBRI ltmpt.ac.id LTMPFFICIAL @Itmptofficial PROTOKOL PENCEGAHAN.COVID COVID-19 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'ILTMPT LembagaTes inggi 10 PESERTA DENGAN NILAI TERTINGGI (SOSHUM) G2O INDONESIA NO NAMA PTN 1 Universitas Gadjah Mada NAMA PRODI Universitas Indonesia 3 NILAI Universitas Gadjah Mada Akuntansi Ilmu Ekonomi 5 Universitas Gadjah Mada 786,17 Universitas Indonesia 6 Akuntansi 784,05 Sastra Prancis 7 Universitas Gadjah Mada 783,78 Akuntansi Universitas Gadjah Mada 8 781,48 9 Manajemen Dan Kebijakan Publik Universitas Airlangga 780,70 Ilmu Hubungan Internasional Universitas Indonesia 10 780,39 Universitas Indonesia Akuntansi 780,35 Ilmu Hukum 778,36 Ilmu Psikologi 774,74 774,45 mandırı KBNI Bank BTN WBRI Itmpt.ac.id LTMPTFFICIAL @Itmptofficial PROTOKOL PENCEGAHANCOVID-19 0804 halo.ltmpt.ac.id'"]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>71</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/posts/588915525987749</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>[{'link': '/story.php?story_fbid=pfbid04ALaJZhLVCabCnQNkEW7qpqfkCErBPe3NQxPJ8vV9Cnu3eqpFDRx2oiQnQb84zBVl&amp;id=109230333956273&amp;locale2=en_US', 'text': 'More'}, {'link': '/hashtag/infoltmpt2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#infoLTMPT2022'}, {'link': '/hashtag/snmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SNMPTN2022'}, {'link': '/hashtag/sbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SBMPTN2022'}, {'link': '/hashtag/utbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#UTBK2022'}, {'link': '/hashtag/inforesmisnmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSNMPTN2022'}, {'link': '/hashtag/inforesmisbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSBMPTN2022'}, {'link': '/hashtag/inforesmiutbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiUTBK2022'}]</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Lembaga Tes Masuk Perguruan Tinggi</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/?locale2=en_US&amp;__tn__=C-R</t>
+        </is>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AV4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>✨DATA HASIL SELEKSI BERSAMA MASUK PERGURUAN TINGGI NEGERI (SBMPTN) 2022✨
+Halo, Calon Mahasiswa Indonesia!
+Ternyata, terjadi peningkatan cukup signifikan pada jumlah peserta UTBK 2022 dibandingkan 2021 loh🤔
+Selain jumlah pendaftar, kira-kira ada data menarik apa lagi pada SBMPTN 2022? Yuk kita simak bersama informasinya!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>✨DATA HASIL SELEKSI BERSAMA MASUK PERGURUAN TINGGI NEGERI (SBMPTN) 2022✨
+Halo, Calon Mahasiswa Indonesia!
+Ternyata, terjadi peningkatan cukup signifikan pada jumlah peserta UTBK 2022 dibandingkan 2021 loh🤔
+Selain jumlah pendaftar, kira-kira ada data menarik apa lagi pada SBMPTN 2022? Yuk kita simak bersama informasinya!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" s="2" t="n">
+        <v>44738.58383101852</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1656226843</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/290138930_588767769335858_2181143309035215917_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=MfMiyezizR8AX_zH87s&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT_tyOFcA9ZhHSjtxwxTvy5hcM-V4w4LYKnKOB2isrLB9g&amp;oe=62C89C75</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/290138930_588767769335858_2181143309035215917_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=MfMiyezizR8AX_zH87s&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT8Oc4XYdTwxK_fJsWlJCNxq5VD2SKYZadJk_LmGyDyPzw&amp;oe=62C89C75</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/290138930_588767769335858_2181143309035215917_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=MfMiyezizR8AX_zH87s&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT_tyOFcA9ZhHSjtxwxTvy5hcM-V4w4LYKnKOB2isrLB9g&amp;oe=62C89C75', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290155166_588767766002525_1666972658391645046_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=u3NjHIxwSE4AX_xkHQi&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT9Ed37v56lxJ_arql0CIw68ML-gJ7Mps5itxwcWDfRDpA&amp;oe=62C848E4', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290393847_588767756002526_7123932155143697132_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=oDBL3mm0r3QAX-_tBY9&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT-1gUcgCWYvSdU7IodwJ5T5PWq2qLX2OuWc8kAdjfMPTA&amp;oe=62C8BB97', 'https://z-m-scontent.fsub2-1.fna.fbcdn.net/v/t39.30808-6/290441816_588767759335859_1539499088854435770_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=sh1BWZLpKYQAX_Dw1nx&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-1.fna&amp;oh=00_AT8tpLWVQ6Azi4L04fS5Z6MCXulua3u7hLKuvIQOld7C4g&amp;oe=62C8A36C', 'https://z-m-scontent.fsub2-4.fna.fbcdn.net/v/t39.30808-6/290073711_588915339321101_4256125514542986989_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=TyiFscovmrUAX_fRaqg&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-4.fna&amp;oh=00_AT8ppreou7l4UUHtaaCKGxsvLY1uAkp6JJRv8_-nTeAJzA&amp;oe=62C9560F']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['May be a cartoon of 3 people and text', "May be an image of text that says 'LTMPT ggi G2O INDONESIA DATA HASIL SELEKSI SBMPTN 2022 Pendaftar UTBK-SBMPTN 2021 dan 2022 Jumlah Peserta UTBK-SBMPTN 800.852 777.858 745.367 732.704 UTBK-SBMPTN Menurut Kelompok Ujian 320.361 339.035 745.142 732.801 355.759 345 444 Jumlah Peserta Jumlah Hadir Tes Jumlah Peserta Eligible 60.663 56.584 SAINTEK SOSHUM SAINTEK dan SOSHUM UTBK-SBMPTN Menurut Status 534.423 518.187 Daya Tampung: 198.281 226.955 2021: 197.567 Reguler 2022: 213.406 KIP Kuliah 2021 2022 mandırı KBNI Bank BTN RBRI ltmpt.ac.id LTMPFFICIAL JAGA PROTOKOL PENCEGAHANCOVID-19 @Itmptofficial halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT LembagaTes inggi DATA HASIL SELEKSI SBMPTN 2022 STATISTIK PORTOFOLIO NO G20 1 JENIS PRODI SENI &amp; OLAHRAGA 2 Seni Rupa, Desain, dan Kriya 3 JUMLAH PESERTA ELIGIBLE Pendidikan Jasmani dan Olahraga Seni Musik 14.755 4 Film dan Televisi 14.014 5 Tari 1.848 6 Fotografi 1.913 7 1.433 Teater dan Seni Pertunjukan 8 Seni Karawitan 643 9 299 10 Etnomusikologi 259 Pedalangan 186 TOTAL 53 35.403 CANDISINI mandırı KBNI Bank BTN WBRI ltmpt.ac.id LTMPTFFICIAL JAGA PROTOKOL PENCEGAHANCOVID-19 COVID-19 @Itmptofficial 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'ILTMPT LembagaTes nggi SNMPTN DATA HASIL SELEKSI SBMPTN 2022 G20 PERSENTASE DITERIMA KELOMPOK UJIAN SAINTEK PESERTA SOSHUM 359.791 DITERIMA SAINTEK 88.703 372.714 % DITERIMA 24,65 SOSHUM TOTAL 68.347 86.801 23,29 800.852 17.306 192.810 25,32 24,07 DAYA TAMPUNG DAYA TAMPUNG TIDAK TERPENUHI 1111 JUMLAH 213.406 20.596 mandırı KBNI Bank CANDISINI BTN WBRI ltmpt.ac.id LTMPTFFICL JAGA PROTOKOL PENCEGAHANCOVID-19 COVID-19 @Itmptofficial 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT LembagaTes inggi 10 PESERTA DENGAN NILAI TERTINGGI (SAINTEK) G20 NO NAMA PTN 1 Institut Teknologi Bandung NAMA PRODI 2 3 Universitas Diponegoro NILAI Sekolah Teknik Elektro Informatika (STEI) Komputasi Universitas Diponegoro 830,98 5 Kedokteran Universitas Gadjah Mada Kedokteran Universitas Gadjah Mada 6 826,29 Kedokteran 7 Universitas Gadjah Mada 824,02 Kedokteran 8 823,24 Universitas Jenderal Soedirman Kedokteran Universitas Gadjah Mada 9 823,21 Pendidikan Dokter Universitas Gadjah Mada 10 820,46 Kedokteran Universitas Gadjah Mada 817,72 Kedokteran 817,03 Kedokteran 816,82 814,47 mandırı KBNI Bank BTN RBRI ltmpt.ac.id LTMPFFICIAL @Itmptofficial PROTOKOL PENCEGAHAN.COVID COVID-19 0804 halo.ltmpt.ac.id'"]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/290138930_588767769335858_2181143309035215917_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=MfMiyezizR8AX_zH87s&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT8Oc4XYdTwxK_fJsWlJCNxq5VD2SKYZadJk_LmGyDyPzw&amp;oe=62C89C75', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290155166_588767766002525_1666972658391645046_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=u3NjHIxwSE4AX_xkHQi&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT-AnZTU3BOj1WV5GYok8hGJIO6PKkrF7hr3ESb0wgklIw&amp;oe=62C848E4', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290393847_588767756002526_7123932155143697132_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=oDBL3mm0r3QAX-_tBY9&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT8NwQgBXDsFBF_AVg1E9G1hInO91-fuVbcGD0ioo34xOA&amp;oe=62C8BB97', 'https://z-m-scontent.fsub2-1.fna.fbcdn.net/v/t39.30808-6/290441816_588767759335859_1539499088854435770_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=sh1BWZLpKYQAX_Dw1nx&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-1.fna&amp;oh=00_AT-hhqlffVVqw3XJWzFfo1O9gIuv9T5kAmFdExkyriQV4Q&amp;oe=62C8A36C']</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>['May be a cartoon of 3 people and text', "May be an image of text that says 'LTMPT ggi G2O INDONESIA DATA HASIL SELEKSI SBMPTN 2022 Pendaftar UTBK-SBMPTN 2021 dan 2022 Jumlah Peserta UTBK-SBMPTN 800.852 777.858 745.367 732.704 UTBK-SBMPTN Menurut Kelompok Ujian 320.361 339.035 745.142 732.801 355.759 345 444 Jumlah Peserta Jumlah Hadir Tes Jumlah Peserta Eligible 60.663 56.584 SAINTEK SOSHUM SAINTEK dan SOSHUM UTBK-SBMPTN Menurut Status 534.423 518.187 Daya Tampung: 198.281 226.955 2021: 197.567 Reguler 2022: 213.406 KIP Kuliah 2021 2022 mandırı KBNI Bank BTN RBRI ltmpt.ac.id LTMPFFICIAL JAGA PROTOKOL PENCEGAHANCOVID-19 @Itmptofficial halo.ltmpt.ac.id'", "May be an image of text that says 'LTMPT LembagaTes inggi DATA HASIL SELEKSI SBMPTN 2022 STATISTIK PORTOFOLIO NO G20 1 JENIS PRODI SENI &amp; OLAHRAGA 2 Seni Rupa, Desain, dan Kriya 3 JUMLAH PESERTA ELIGIBLE Pendidikan Jasmani dan Olahraga Seni Musik 14.755 4 Film dan Televisi 14.014 5 Tari 1.848 6 Fotografi 1.913 7 1.433 Teater dan Seni Pertunjukan 8 Seni Karawitan 643 9 299 10 Etnomusikologi 259 Pedalangan 186 TOTAL 53 35.403 CANDISINI mandırı KBNI Bank BTN WBRI ltmpt.ac.id LTMPTFFICIAL JAGA PROTOKOL PENCEGAHANCOVID-19 COVID-19 @Itmptofficial 0804 halo.ltmpt.ac.id'", "May be an image of text that says 'ILTMPT LembagaTes nggi SNMPTN DATA HASIL SELEKSI SBMPTN 2022 G20 PERSENTASE DITERIMA KELOMPOK UJIAN SAINTEK PESERTA SOSHUM 359.791 DITERIMA SAINTEK 88.703 372.714 % DITERIMA 24,65 SOSHUM TOTAL 68.347 86.801 23,29 800.852 17.306 192.810 25,32 24,07 DAYA TAMPUNG DAYA TAMPUNG TIDAK TERPENUHI 1111 JUMLAH 213.406 20.596 mandırı KBNI Bank CANDISINI BTN WBRI ltmpt.ac.id LTMPTFFICL JAGA PROTOKOL PENCEGAHANCOVID-19 COVID-19 @Itmptofficial 0804 halo.ltmpt.ac.id'"]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>61</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/posts/588767849335850</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>[{'link': '/story.php?story_fbid=pfbid01CsuJNmAwp9hzzWQSmdHs14WBeGTNcoJSAfdHmfgv89vEaWD6p9GXEpM1KeqahU5l&amp;id=109230333956273&amp;locale2=en_US', 'text': 'More'}, {'link': '/hashtag/infoltmpt2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#infoLTMPT2022'}, {'link': '/hashtag/snmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SNMPTN2022'}, {'link': '/hashtag/sbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SBMPTN2022'}, {'link': '/hashtag/utbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#UTBK2022'}, {'link': '/hashtag/inforesmisnmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSNMPTN2022'}, {'link': '/hashtag/inforesmisbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSBMPTN2022'}, {'link': '/hashtag/inforesmiutbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiUTBK2022'}]</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Lembaga Tes Masuk Perguruan Tinggi</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/?locale2=en_US&amp;__tn__=C-R</t>
+        </is>
+      </c>
+      <c r="AF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AV5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>✨SIARAN PERS PENGUMUMAN HASIL SBMPTN 2022✨
+Halo Calon Mahasiswa Indonesia!
+Ketua LTMPT 2022, Bapak Mochammad Ashari menyampaikan selamat kepada 192.810 siswa-siswi Indonesia yang dinyatakan lolos pada SBMPTN 2022. Jadikan momentum ini sebagai awal perjuangan baru untuk menyambut masa depan yang gemilang!
+Bagi siswa-siswi yang belum lulus, jangan berkecil hati dan tetap semangat untuk berjuang pada jalur selanjutnya.
+Bagi siswa yang telah dinyatakan lulus, segera cek jadwal registrasi ulang di PTN masing-masing dan siapkan ketentuan serta serta persyaratan yang ditetapkan.
+Yuk simak bersama Siaran Pers Resmi Pengumuman Hasil SBMPTN 2022!
+Tetap semangat dan selamat berjuang, Calon Mahasiswa Indonesia!
+Informasi lengkap seputar PMB PTN dapat diakses melalui laman ltmpt.ac.id atau media sosial @LTMPTOfficial.
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>✨SIARAN PERS PENGUMUMAN HASIL SBMPTN 2022✨
+Halo Calon Mahasiswa Indonesia!
+Ketua LTMPT 2022, Bapak Mochammad Ashari menyampaikan selamat kepada 192.810 siswa-siswi Indonesia yang dinyatakan lolos pada SBMPTN 2022. Jadikan momentum ini sebagai awal perjuangan baru untuk menyambut masa depan yang gemilang!
+Bagi siswa-siswi yang belum lulus, jangan berkecil hati dan tetap semangat untuk berjuang pada jalur selanjutnya.
+Bagi siswa yang telah dinyatakan lulus, segera cek jadwal registrasi ulang di PTN masing-masing dan siapkan ketentuan serta serta persyaratan yang ditetapkan.
+Yuk simak bersama Siaran Pers Resmi Pengumuman Hasil SBMPTN 2022!
+Tetap semangat dan selamat berjuang, Calon Mahasiswa Indonesia!
+Informasi lengkap seputar PMB PTN dapat diakses melalui laman ltmpt.ac.id atau media sosial @LTMPTOfficial.
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" s="2" t="n">
+        <v>44737.64760416667</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1656145953</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/289795753_588161612729807_2536220498555919298_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=m5ZR2LgH43IAX8sBMef&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT_gHjVR4P1Y4wqgYZakKE-cB9g-kpeX3_oVVCWi871YTA&amp;oe=62C7C16D</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/289795753_588161612729807_2536220498555919298_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=m5ZR2LgH43IAX8sBMef&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT9RMlqLt1VURDty8lqvNdjO7WXqlStr4oBauC0OkMqYxw&amp;oe=62C7C16D</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/289795753_588161612729807_2536220498555919298_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=m5ZR2LgH43IAX8sBMef&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT_gHjVR4P1Y4wqgYZakKE-cB9g-kpeX3_oVVCWi871YTA&amp;oe=62C7C16D', 'https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/290001546_588161602729808_5595215524718029613_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=UkxbpZ7lx-QAX_tQfyg&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT_Do2mOjI3_ABxNPpfcISYOQxSvtWrvitiubpw_n5iOoQ&amp;oe=62C8FF93', 'https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/289789643_588161599396475_978334576877061666_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=1sZrUdrBF-oAX8j9w-j&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT8vqG7PFJjM-0UlloL-p6xAhTbLMKKs3D7_Hd9i7Rlulw&amp;oe=62C98D99', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290329104_588161609396474_6514933397049418204_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=OreqCaDftTMAX8VEPpL&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT8M0kzS4EvTAYC6hSQ-WZ6Y93lcy39mZaklFWMsMwZvPw&amp;oe=62C8EA1D', 'https://z-m-scontent.fsub2-1.fna.fbcdn.net/v/t39.30808-6/290139425_588161606063141_2590287887272436139_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=3ZSBziGwnMwAX8D81Kn&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-1.fna&amp;oh=00_AT-Q4mBMgXbSnLskp4-3dQmZ8Az8FfPP-GbVaT_judEgJw&amp;oe=62C9953E']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['No photo description available.', 'No photo description available.', 'No photo description available.', 'No photo description available.', 'No photo description available.']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/289795753_588161612729807_2536220498555919298_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=m5ZR2LgH43IAX8sBMef&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT9RMlqLt1VURDty8lqvNdjO7WXqlStr4oBauC0OkMqYxw&amp;oe=62C7C16D', 'https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/290001546_588161602729808_5595215524718029613_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=UkxbpZ7lx-QAX_tQfyg&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT_4-TndAHAEvem9qpfWnWwviPLobNI1BgCXuA-r8lxPTQ&amp;oe=62C8FF93', 'https://z-m-scontent.fsub2-3.fna.fbcdn.net/v/t39.30808-6/289789643_588161599396475_978334576877061666_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=1sZrUdrBF-oAX8j9w-j&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-3.fna&amp;oh=00_AT_APfYhMk0vDsHfGEepqZOdS4-N8EkZ90ccG5ADRlD6Rw&amp;oe=62C98D99', 'https://z-m-scontent.fsub2-2.fna.fbcdn.net/v/t39.30808-6/290329104_588161609396474_6514933397049418204_n.jpg?stp=cp0_dst-jpg_e15_p160x160_q65&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=OreqCaDftTMAX8VEPpL&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-2.fna&amp;oh=00_AT_S0wvEycloCwIeb2mv2QrS2v5bMvltE4FHDCbzPI5fNQ&amp;oe=62C8EA1D']</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['No photo description available.', 'No photo description available.', 'No photo description available.', 'No photo description available.']</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>67</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/posts/588161716063130</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>[{'link': '/story.php?story_fbid=pfbid02zZ69uopps91CuddmZhJYpCxVM3sBWnV7NaGYHi1MQCH5ZcUzyjXCHwBu9Wf4UxBUl&amp;id=109230333956273&amp;locale2=en_US', 'text': 'More'}, {'link': '/hashtag/infoltmpt2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#infoLTMPT2022'}, {'link': '/hashtag/snmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SNMPTN2022'}, {'link': '/hashtag/sbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SBMPTN2022'}, {'link': '/hashtag/utbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#UTBK2022'}, {'link': '/hashtag/inforesmisnmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSNMPTN2022'}, {'link': '/hashtag/inforesmisbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSBMPTN2022'}, {'link': '/hashtag/inforesmiutbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiUTBK2022'}]</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Lembaga Tes Masuk Perguruan Tinggi</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/?locale2=en_US&amp;__tn__=C-R</t>
+        </is>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>[{'comment_id': '442583310666451', 'comment_url': 'https://facebook.com/442583310666451', 'commenter_id': '100027108682300', 'commenter_url': None, 'commenter_name': 'Muhammad Reiza', 'commenter_meta': None, 'comment_text': 'erorr web lu', 'comment_time': datetime.datetime(2022, 6, 28, 0, 0), 'comment_image': None, 'comment_reactors': [], 'comment_reactions': None, 'comment_reaction_count': None, 'replies': []}, {'comment_id': '392828976159316', 'comment_url': 'https://facebook.com/392828976159316', 'commenter_id': '100031361596369', 'commenter_url': None, 'commenter_name': 'Bell Cranel', 'commenter_meta': None, 'comment_text': 'Mau cek skor utbk kok server eror mulu', 'comment_time': datetime.datetime(2022, 6, 28, 0, 0), 'comment_image': None, 'comment_reactors': [], 'comment_reactions': None, 'comment_reaction_count': None, 'replies': []}]</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AV6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Jika hari ini menjadi kegagalan, maka jangan biarkan hal itu mempengaruhi keberhasilanmu esok hari. Mungkin hari ini, saatnya kamu belajar, agar besok dapat berjuang lebih hebat lagi.
+Bagi seluruh Calon Mahasiswa yang belum berhasil lulus pada seleksi jalur SBMPTN, jangan putus asa dan tetap semangat. Masih banyak kesuksesan yang menunggu di depan mata.
+Tetap semangat dan selamat berjuang, Calon Mahasiswa Indonesia!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jika hari ini menjadi kegagalan, maka jangan biarkan hal itu mempengaruhi keberhasilanmu esok hari. Mungkin hari ini, saatnya kamu belajar, agar besok dapat berjuang lebih hebat lagi.
+Bagi seluruh Calon Mahasiswa yang belum berhasil lulus pada seleksi jalur SBMPTN, jangan putus asa dan tetap semangat. Masih banyak kesuksesan yang menunggu di depan mata.
+Tetap semangat dan selamat berjuang, Calon Mahasiswa Indonesia!
+#infoLTMPT2022
+#SNMPTN2022
+#SBMPTN2022
+#UTBK2022
+#InfoResmiSNMPTN2022
+#InfoResmiSBMPTN2022
+#InfoResmiUTBK2022</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>44735.7852662037</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1655985047</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-1.fna.fbcdn.net/v/t39.30808-6/289450452_586824099530225_4993482126337319841_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=hkMGygwbUAoAX-I34jn&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-1.fna&amp;oh=00_AT-2oUYMk__IjwQ-\-\qHZxS4R7yqhFKnDhrhjj1_ZQQiyBw&amp;oe=62C8C407</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://z-m-scontent.fsub2-1.fna.fbcdn.net/v/t39.30808-6/289450452_586824099530225_4993482126337319841_n.jpg?stp=cp0_dst-jpg_e15_p320x320_q65&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=hkMGygwbUAoAX-I34jn&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-1.fna&amp;oh=00_AT8_jpIjq30wod6v71sfRoiAfde-oPS0d09iaPdqQ2oaXA&amp;oe=62C8C407</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-1.fna.fbcdn.net/v/t39.30808-6/289450452_586824099530225_4993482126337319841_n.jpg?stp=cp0_dst-jpg_e15_fr_q65&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=hkMGygwbUAoAX-I34jn&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-1.fna&amp;oh=00_AT-2oUYMk__IjwQ-\\-\\qHZxS4R7yqhFKnDhrhjj1_ZQQiyBw&amp;oe=62C8C407']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['May be a cartoon of one or more people']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>['https://z-m-scontent.fsub2-1.fna.fbcdn.net/v/t39.30808-6/289450452_586824099530225_4993482126337319841_n.jpg?stp=cp0_dst-jpg_e15_p320x320_q65&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=9e2e56&amp;_nc_ohc=hkMGygwbUAoAX-I34jn&amp;_nc_ad=z-m&amp;_nc_cid=1101&amp;_nc_eh=d11f0de80fe92a6b68779482182f7a76&amp;_nc_zt=23&amp;_nc_rml=0&amp;_nc_ht=z-m-scontent.fsub2-1.fna&amp;oh=00_AT8_jpIjq30wod6v71sfRoiAfde-oPS0d09iaPdqQ2oaXA&amp;oe=62C8C407']</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>['May be a cartoon of one or more people']</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>157</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/posts/586824119530223</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>[{'link': '/story.php?story_fbid=pfbid021Wng3dH9c1uYfrDnkCETvD5Y5yrw6PopisD3nguSUMnBq8MUR4jeDv431fHMjqNml&amp;id=109230333956273&amp;locale2=en_US', 'text': 'More'}, {'link': '/hashtag/infoltmpt2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#infoLTMPT2022'}, {'link': '/hashtag/snmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SNMPTN2022'}, {'link': '/hashtag/sbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#SBMPTN2022'}, {'link': '/hashtag/utbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#UTBK2022'}, {'link': '/hashtag/inforesmisnmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSNMPTN2022'}, {'link': '/hashtag/inforesmisbmptn2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiSBMPTN2022'}, {'link': '/hashtag/inforesmiutbk2022?locale2=en_US&amp;__tn__=%2As-R', 'text': '#InfoResmiUTBK2022'}]</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Lembaga Tes Masuk Perguruan Tinggi</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ltmptofficial/?locale2=en_US&amp;__tn__=C-R</t>
+        </is>
+      </c>
+      <c r="AF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>[{'comment_id': '2200415276799081', 'comment_url': 'https://facebook.com/2200415276799081', 'commenter_id': '100063491479002', 'commenter_url': None, 'commenter_name': 'Retrophile', 'commenter_meta': None, 'comment_text': 'Terima kasih sudah kuat sampai hari ini\nkalian hebat', 'comment_time': datetime.datetime(2022, 6, 28, 0, 0), 'comment_image': None, 'comment_reactors': [], 'comment_reactions': None, 'comment_reaction_count': None, 'replies': []}, {'comment_id': '714469426296683', 'comment_url': 'https://facebook.com/714469426296683', 'commenter_id': '100025532029521', 'commenter_url': None, 'commenter_name': 'Nayla Sabhani', 'commenter_meta': None, 'comment_text': 'parbet min parbett', 'comment_time': datetime.datetime(2022, 6, 21, 0, 0), 'comment_image': None, 'comment_reactors': [], 'comment_reactions': None, 'comment_reaction_count': None, 'replies': []}, {'comment_id': '1154402711772728', 'comment_url': 'https://facebook.com/1154402711772728', 'commenter_id': '100023520136573', 'commenter_url': None, 'commenter_name': 'Redy Loloallo', 'commenter_meta': None, 'comment_text': 'Possikmu Mak Rere Rere', 'comment_time': datetime.datetime(2022, 6, 21, 0, 0), 'comment_image': None, 'comment_reactors': [], 'comment_reactions': None, 'comment_reaction_count': None, 'replies': []}, {'comment_id': '585841172926157', 'comment_url': 'https://facebook.com/585841172926157', 'commenter_id': '100023135136106', 'commenter_url': None, 'commenter_name': 'Riko Sopiyandi', 'commenter_meta': None, 'comment_text': '2021-2022 gagal .. jadi gmn y 🙂🙂', 'comment_time': datetime.datetime(2022, 6, 21, 0, 0), 'comment_image': None, 'comment_reactors': [], 'comment_reactions': None, 'comment_reaction_count': None, 'replies': []}, {'comment_id': '1227800054672212', 'comment_url': 'https://facebook.com/1227800054672212', 'commenter_id': '100017444861559', 'commenter_url': None, 'commenter_name': 'Yunita', 'commenter_meta': None, 'comment_text': 'Alhamdulillah lolos', 'comment_time': datetime.datetime(2022, 6, 21, 0, 0), 'comment_image': None, 'comment_reactors': [], 'comment_reactions': None, 'comment_reaction_count': None, 'replies': []}, {'comment_id': '1221634191710236', 'comment_url': 'https://facebook.com/1221634191710236', 'commenter_id': '100048195497268', 'commenter_url': None, 'commenter_name': 'Lulu Shabina', 'commenter_meta': None, 'comment_text': 'yolah yo', 'comment_time': datetime.datetime(2022, 6, 21, 0, 0), 'comment_image': None, 'comment_reactors': [], 'comment_reactions': None, 'comment_reaction_count': None, 'replies': []}]</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>109230333956273</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>586824102863558</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>['586824102863558']</t>
+        </is>
+      </c>
+      <c r="AV7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
